--- a/biology/Zoologie/Cethegus_daemeli/Cethegus_daemeli.xlsx
+++ b/biology/Zoologie/Cethegus_daemeli/Cethegus_daemeli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cethegus daemeli est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cethegus daemeli est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers Lockhardt dans les monts Iron[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers Lockhardt dans les monts Iron.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,05 mm de long sur 6,16 mm et l'abdomen 6,23 mm de long sur 4,00 mm et la carapace de la femelle paratype mesure 7,14 mm de long sur 6,50 mm et l'abdomen 11,93 mm de long sur 9,00 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,05 mm de long sur 6,16 mm et l'abdomen 6,23 mm de long sur 4,00 mm et la carapace de la femelle paratype mesure 7,14 mm de long sur 6,50 mm et l'abdomen 11,93 mm de long sur 9,00 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Dämel (1821-1900)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Dämel (1821-1900).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 1984 : Systematics of the Australian curtain-web spiders (Ischnothelinae: Dipluridae: Chelicerata). Australian Journal of Zoology Supplementary Series, no 93, p. 1-102.</t>
         </is>
